--- a/heatmap_regions.xlsx
+++ b/heatmap_regions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadenlin/PycharmProjects/heatmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510EFAF1-BA02-E341-B598-D5E0FF6574EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C15B021-FD43-2D44-80BE-30A42ADF413B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48200" yWindow="500" windowWidth="19000" windowHeight="21100" activeTab="5" xr2:uid="{213FA595-918D-3946-B7E0-FCC1CC092781}"/>
+    <workbookView xWindow="48500" yWindow="480" windowWidth="18700" windowHeight="21120" activeTab="7" xr2:uid="{213FA595-918D-3946-B7E0-FCC1CC092781}"/>
   </bookViews>
   <sheets>
     <sheet name="McCain" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>lat</t>
   </si>
@@ -51,24 +51,12 @@
     <t>lon</t>
   </si>
   <si>
-    <t>Massachusetts DOT, MA</t>
-  </si>
-  <si>
     <t>San Diego County, CA</t>
   </si>
   <si>
     <t>Onondaga County, NY</t>
   </si>
   <si>
-    <t>Georgia DOT, GA</t>
-  </si>
-  <si>
-    <t>Texas DOT, TX</t>
-  </si>
-  <si>
-    <t>Oregon DOT, OR</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -78,12 +66,6 @@
     <t>County of Fort Bend, TX</t>
   </si>
   <si>
-    <t>Indiana Department of Transportation, IN</t>
-  </si>
-  <si>
-    <t>North Carolina Department of Transportation, NC</t>
-  </si>
-  <si>
     <t>Bay Area, CA</t>
   </si>
   <si>
@@ -91,6 +73,48 @@
   </si>
   <si>
     <t>Central Virginia, VA</t>
+  </si>
+  <si>
+    <t>North Carolina DOT</t>
+  </si>
+  <si>
+    <t>Indiana DOT</t>
+  </si>
+  <si>
+    <t>Massachusetts DOT</t>
+  </si>
+  <si>
+    <t>Georgia DOT</t>
+  </si>
+  <si>
+    <t>Texas DOT</t>
+  </si>
+  <si>
+    <t>Oregon DOT</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>From deployment map</t>
+  </si>
+  <si>
+    <t>Installed in 200+ intersections</t>
+  </si>
+  <si>
+    <t>Quantity not specified</t>
+  </si>
+  <si>
+    <t>269 contollers installed</t>
+  </si>
+  <si>
+    <t>800+ controllers installed</t>
+  </si>
+  <si>
+    <t>Installed in ~20 intersections</t>
+  </si>
+  <si>
+    <t>From company website</t>
   </si>
 </sst>
 </file>
@@ -442,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90B45B-30EF-9643-B0C9-A8429F09E098}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,7 +479,7 @@
     <col min="3" max="3" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,10 +487,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>42.407200000000003</v>
       </c>
@@ -474,10 +501,13 @@
         <v>-71.058199999999999</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>32.715738000000002</v>
       </c>
@@ -485,10 +515,13 @@
         <v>-117.1610838</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>43.004609500000001</v>
       </c>
@@ -496,10 +529,13 @@
         <v>-76.199712599999998</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>33.755400000000002</v>
       </c>
@@ -507,10 +543,13 @@
         <v>-84.388300000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>30.2805</v>
       </c>
@@ -518,10 +557,13 @@
         <v>-97.738900000000001</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>44.937399999999997</v>
       </c>
@@ -529,10 +571,13 @@
         <v>-123.02719999999999</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>34.320700000000002</v>
       </c>
@@ -540,7 +585,10 @@
         <v>-95.393000000000001</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -550,15 +598,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFD41E7-3B67-9D49-B1DE-4330EE3EC002}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>27.990400000000001</v>
+      </c>
+      <c r="B2">
+        <v>-82.3018</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>29.569299999999998</v>
+      </c>
+      <c r="B3">
+        <v>95.814300000000003</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D892E59C-86E8-6347-A20C-4094A13447AF}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,29 +675,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>27.990400000000001</v>
-      </c>
-      <c r="B2">
-        <v>-82.3018</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>29.569299999999998</v>
-      </c>
-      <c r="B3">
-        <v>95.814300000000003</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -596,17 +686,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D892E59C-86E8-6347-A20C-4094A13447AF}">
-  <dimension ref="A1:C1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EC95F3-C790-9446-AD09-C91AA9DD5017}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +704,38 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>39.768999999999998</v>
+      </c>
+      <c r="B2">
+        <v>-86.1648</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>35.78</v>
+      </c>
+      <c r="B3">
+        <v>-78.638999999999996</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -622,17 +743,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EC95F3-C790-9446-AD09-C91AA9DD5017}">
-  <dimension ref="A1:C3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174162E3-3057-9149-8622-045C6F24260C}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,29 +761,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>39.768999999999998</v>
-      </c>
-      <c r="B2">
-        <v>-86.1648</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>35.78</v>
-      </c>
-      <c r="B3">
-        <v>-78.638999999999996</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -670,17 +772,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174162E3-3057-9149-8622-045C6F24260C}">
-  <dimension ref="A1:C1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C9BB3A-6651-3E4C-B1AD-834E9F678CEE}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +790,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>37.827199999999998</v>
+      </c>
+      <c r="B2">
+        <v>-122.29130000000001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -696,17 +815,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C9BB3A-6651-3E4C-B1AD-834E9F678CEE}">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E0ACDC-FD98-0244-96C2-1282A94041AA}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,18 +833,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>37.827199999999998</v>
+        <v>37.9268</v>
       </c>
       <c r="B2">
-        <v>-122.29130000000001</v>
+        <v>-78.024900000000002</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -733,17 +858,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E0ACDC-FD98-0244-96C2-1282A94041AA}">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD0E433-F7B7-D44E-91C4-BB4FF2D1D10E}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,44 +876,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>37.9268</v>
-      </c>
-      <c r="B2">
-        <v>-78.024900000000002</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD0E433-F7B7-D44E-91C4-BB4FF2D1D10E}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/heatmap_regions.xlsx
+++ b/heatmap_regions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadenlin/PycharmProjects/heatmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C15B021-FD43-2D44-80BE-30A42ADF413B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D67C85D-1B27-AA4C-BC39-0452C51AE07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48500" yWindow="480" windowWidth="18700" windowHeight="21120" activeTab="7" xr2:uid="{213FA595-918D-3946-B7E0-FCC1CC092781}"/>
+    <workbookView xWindow="44840" yWindow="480" windowWidth="22360" windowHeight="21120" activeTab="7" xr2:uid="{213FA595-918D-3946-B7E0-FCC1CC092781}"/>
   </bookViews>
   <sheets>
     <sheet name="McCain" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Mobotrex" sheetId="7" r:id="rId7"/>
     <sheet name="Western Systems" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>lat</t>
   </si>
@@ -99,22 +99,67 @@
     <t>From deployment map</t>
   </si>
   <si>
-    <t>Installed in 200+ intersections</t>
-  </si>
-  <si>
-    <t>Quantity not specified</t>
-  </si>
-  <si>
-    <t>269 contollers installed</t>
-  </si>
-  <si>
-    <t>800+ controllers installed</t>
-  </si>
-  <si>
-    <t>Installed in ~20 intersections</t>
-  </si>
-  <si>
     <t>From company website</t>
+  </si>
+  <si>
+    <t>Los Angeles County, CA</t>
+  </si>
+  <si>
+    <t>NOVA DOT</t>
+  </si>
+  <si>
+    <t>Montgomary County, TX</t>
+  </si>
+  <si>
+    <t>Washington DOT</t>
+  </si>
+  <si>
+    <t>Minnesota DOT</t>
+  </si>
+  <si>
+    <t>Santa Rosa County, FL</t>
+  </si>
+  <si>
+    <t>Grant County, WA</t>
+  </si>
+  <si>
+    <t>From deployment map - 2016</t>
+  </si>
+  <si>
+    <t>From deployment map - 2018</t>
+  </si>
+  <si>
+    <t>From deployment map - 2017</t>
+  </si>
+  <si>
+    <t>From deployment map - 2014</t>
+  </si>
+  <si>
+    <t>From deployment map - 2015</t>
+  </si>
+  <si>
+    <t>From deployment map - 2021</t>
+  </si>
+  <si>
+    <t>From deployment map - 2022</t>
+  </si>
+  <si>
+    <t>From deployment map - 2023</t>
+  </si>
+  <si>
+    <t>Quantity not specified - 06/28/2023</t>
+  </si>
+  <si>
+    <t>Installed in 200+ intersections - 10/30/2023</t>
+  </si>
+  <si>
+    <t>269 contollers installed - 04/08/21</t>
+  </si>
+  <si>
+    <t>800+ controllers installed - 12/12/2023</t>
+  </si>
+  <si>
+    <t>Installed in ~20 intersections - 10/03/17</t>
   </si>
 </sst>
 </file>
@@ -466,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90B45B-30EF-9643-B0C9-A8429F09E098}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -532,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -546,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -560,7 +605,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -574,7 +619,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -588,7 +633,105 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>34.3872</v>
+      </c>
+      <c r="B9">
+        <v>-118.1123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>38.846200000000003</v>
+      </c>
+      <c r="B10">
+        <v>-77.3964</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>30.321300000000001</v>
+      </c>
+      <c r="B11">
+        <v>-95.477800000000002</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>47.423499999999997</v>
+      </c>
+      <c r="B12">
+        <v>-120.3103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>44.953699999999998</v>
+      </c>
+      <c r="B13">
+        <v>-93.09</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>30.768999999999998</v>
+      </c>
+      <c r="B14">
+        <v>-86.982399999999998</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>47.198099999999997</v>
+      </c>
+      <c r="B15">
+        <v>-119.3732</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -601,7 +744,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +778,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -643,13 +786,13 @@
         <v>29.569299999999998</v>
       </c>
       <c r="B3">
-        <v>95.814300000000003</v>
+        <v>-95.814300000000003</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -735,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -850,7 +993,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +1006,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/heatmap_regions.xlsx
+++ b/heatmap_regions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadenlin/PycharmProjects/heatmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D67C85D-1B27-AA4C-BC39-0452C51AE07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8FACF0-EE5E-7545-A3C4-9C3A6CF6199F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44840" yWindow="480" windowWidth="22360" windowHeight="21120" activeTab="7" xr2:uid="{213FA595-918D-3946-B7E0-FCC1CC092781}"/>
+    <workbookView xWindow="44840" yWindow="500" windowWidth="22360" windowHeight="21100" activeTab="7" xr2:uid="{213FA595-918D-3946-B7E0-FCC1CC092781}"/>
   </bookViews>
   <sheets>
     <sheet name="McCain" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="Q-Free" sheetId="4" r:id="rId4"/>
     <sheet name="Oriux" sheetId="5" r:id="rId5"/>
     <sheet name="Cubic" sheetId="6" r:id="rId6"/>
-    <sheet name="Mobotrex" sheetId="7" r:id="rId7"/>
+    <sheet name="MoboTrex" sheetId="7" r:id="rId7"/>
     <sheet name="Western Systems" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -150,16 +150,16 @@
     <t>Quantity not specified - 06/28/2023</t>
   </si>
   <si>
-    <t>Installed in 200+ intersections - 10/30/2023</t>
-  </si>
-  <si>
-    <t>269 contollers installed - 04/08/21</t>
-  </si>
-  <si>
-    <t>800+ controllers installed - 12/12/2023</t>
-  </si>
-  <si>
-    <t>Installed in ~20 intersections - 10/03/17</t>
+    <t>ATC installations in 200+ intersections - 10/30/2023</t>
+  </si>
+  <si>
+    <t>269 ATC installations - 04/08/21</t>
+  </si>
+  <si>
+    <t>800+ ATC installations - 12/12/2023</t>
+  </si>
+  <si>
+    <t>ATC installations in ~20 intersections - 10/03/17</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -834,7 +834,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,7 +920,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
